--- a/etl/data/input/Datos_carga_anuales_demo_final.xlsx
+++ b/etl/data/input/Datos_carga_anuales_demo_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demografía" sheetId="1" state="visible" r:id="rId2"/>
@@ -225,7 +225,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,12 +254,6 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,588 +348,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dotación hospitales'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HOSP_PUB_Total Puestos Hospital de Día por 100.000 hab_Cantabria</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dotación hospitales'!$A$2:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dotación hospitales'!$K$2:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>15.7430622284279</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.4478546854581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.8391021494067</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.0416885476947</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.7761516209127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.8835277611151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.7773044162472</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.0406896737876</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.4139478716958</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.4478202614372</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41.96</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45.48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47.58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>46.73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>47.76</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>47.44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48.37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dotación hospitales'!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HOSP_PUB_Total Puestos Hospital de Día por 100.000 hab_España</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dotación hospitales'!$A$2:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dotación hospitales'!$U$2:$U$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>10.0457688214269</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.4155297455328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.8555835761245</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.3162658344824</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.3810330414057</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.8402161038767</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.6323799160694</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.3741252243631</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.2280429050588</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.5172604522557</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27.64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.51</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.93</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="38870656"/>
-        <c:axId val="51978042"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="38870656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51978042"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51978042"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38870656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="2661120" y="6858000"/>
-        <a:ext cx="7581960" cy="2742840"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,8 +358,8 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1804,14 +1217,14 @@
   </sheetPr>
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +2390,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3933,8 +3345,8 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etl/data/input/Datos_carga_anuales_demo_final.xlsx
+++ b/etl/data/input/Datos_carga_anuales_demo_final.xlsx
@@ -9,10 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="Demografía" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Dotación hospitales" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tasas_Morbilidad_hospitalaria" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Estancia_media" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Profesionales sanitarios" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Media_movil_3años_Hogares" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dotación hospitales" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tasas_Morbilidad_hospitalaria" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Estancia_media" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Profesionales sanitarios" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t xml:space="preserve">Año</t>
   </si>
@@ -71,6 +72,24 @@
     <t xml:space="preserve">Tasas de feminidad hogares unipersonales de 65 y + años_España </t>
   </si>
   <si>
+    <t xml:space="preserve">Porporción de hogares unipersonales_Cantabria_Media móvil centrada (3 años)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porporción de hogares unipersonales_España_Media móvil centrada (3 años)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporción de hogares unipersonales de 65 y más años_Cantabria_Media móvil centrada (3 años)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporción de hogares unipersonales de 65 y más años_España_Media móvil centrada (3 años)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasas de feminidad hogares unipersonales de 65 y + años_Cantabria_Media móvil centrada (3 años)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasas de feminidad hogares unipersonales de 65 y + años_España_Media móvil centrada (3 años) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Camas instaladas por 1.000 hab_Cantabria</t>
   </si>
   <si>
@@ -195,9 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">Estancia_media_Mujeres_Neumonía_Cantabria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estancia_media_Mujeres_España</t>
   </si>
   <si>
     <t xml:space="preserve">Estancia_media_Mujeres_Neumonía_España</t>
@@ -225,7 +241,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,6 +270,17 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,7 +375,588 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dotación hospitales'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOSP_PUB_Total Puestos Hospital de Día por 100.000 hab_Cantabria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dotación hospitales'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dotación hospitales'!$K$2:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>15.7430622284279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.4478546854581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.8391021494067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0416885476947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.7761516209127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.8835277611151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.7773044162472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.0406896737876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.4139478716958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.4478202614372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dotación hospitales'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOSP_PUB_Total Puestos Hospital de Día por 100.000 hab_España</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dotación hospitales'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dotación hospitales'!$U$2:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10.0457688214269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4155297455328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.8555835761245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3162658344824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.3810330414057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.8402161038767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.6323799160694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.3741252243631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.2280429050588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.5172604522557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="82458529"/>
+        <c:axId val="416014"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82458529"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416014"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416014"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82458529"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484920</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2661120" y="6858000"/>
+        <a:ext cx="7581600" cy="2742480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,10 +964,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,7 +976,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.42"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -413,6 +1021,30 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <f aca="false">Media_movil_3años_Hogares!B1</f>
+        <v>Porporción de hogares unipersonales_Cantabria_Media móvil centrada (3 años)</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <f aca="false">Media_movil_3años_Hogares!C1</f>
+        <v>Porporción de hogares unipersonales_España_Media móvil centrada (3 años)</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <f aca="false">Media_movil_3años_Hogares!D1</f>
+        <v>Proporción de hogares unipersonales de 65 y más años_Cantabria_Media móvil centrada (3 años)</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <f aca="false">Media_movil_3años_Hogares!E1</f>
+        <v>Proporción de hogares unipersonales de 65 y más años_España_Media móvil centrada (3 años)</v>
+      </c>
+      <c r="T1" s="2" t="str">
+        <f aca="false">Media_movil_3años_Hogares!F1</f>
+        <v>Tasas de feminidad hogares unipersonales de 65 y + años_Cantabria_Media móvil centrada (3 años)</v>
+      </c>
+      <c r="U1" s="2" t="str">
+        <f aca="false">Media_movil_3años_Hogares!G1</f>
+        <v>Tasas de feminidad hogares unipersonales de 65 y + años_España_Media móvil centrada (3 años) </v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +1549,7 @@
         <v>72.5299069561365</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2014</v>
       </c>
@@ -963,8 +1595,32 @@
       <c r="O16" s="5" t="n">
         <v>72.1637805470141</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!B3</f>
+        <v>26.9735496611719</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!C3</f>
+        <v>24.6612326094545</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!D3</f>
+        <v>10.5477608115806</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!E3</f>
+        <v>10.0588331601544</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!F3</f>
+        <v>73.8174048900806</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!G3</f>
+        <v>72.5402946586299</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>2015</v>
       </c>
@@ -1010,8 +1666,32 @@
       <c r="O17" s="5" t="n">
         <v>72.927196472739</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!B4</f>
+        <v>27.2778851962312</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!C4</f>
+        <v>24.9882528623237</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!D4</f>
+        <v>11.1172066734033</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!E4</f>
+        <v>10.2562082472038</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!F4</f>
+        <v>75.0496810877482</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!G4</f>
+        <v>71.9399275629388</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2016</v>
       </c>
@@ -1057,8 +1737,32 @@
       <c r="O18" s="5" t="n">
         <v>70.7288056690633</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!B5</f>
+        <v>27.4271423088162</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!C5</f>
+        <v>25.1871978417953</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!D5</f>
+        <v>10.6703531260273</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!E5</f>
+        <v>10.4186328859991</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!F5</f>
+        <v>74.9002879971786</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!G5</f>
+        <v>71.8539199007021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2017</v>
       </c>
@@ -1104,8 +1808,32 @@
       <c r="O19" s="5" t="n">
         <v>71.9057575603039</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!B6</f>
+        <v>27.6189646904804</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!C6</f>
+        <v>25.3684664413551</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!D6</f>
+        <v>11.7005862107585</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!E6</f>
+        <v>10.7039704173109</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!F6</f>
+        <v>70.607850476893</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!G6</f>
+        <v>71.5195971753254</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2018</v>
       </c>
@@ -1151,8 +1879,32 @@
       <c r="O20" s="5" t="n">
         <v>71.9242282966089</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!B7</f>
+        <v>27.8892780046446</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!C7</f>
+        <v>25.5475402369293</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!D7</f>
+        <v>11.7682265708531</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!E7</f>
+        <v>10.7983456293734</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!F7</f>
+        <v>67.5362900206455</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <f aca="false">Media_movil_3años_Hogares!G7</f>
+        <v>72.0386947032873</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2019</v>
       </c>
@@ -1215,1171 +1967,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="n">
-        <v>0.0809</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>36.7338118663317</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="n">
-        <v>0.0583</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>15.7430622284279</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="n">
-        <v>0.0868</v>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>13.7469713253448</v>
-      </c>
-      <c r="Q2" s="5" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="U2" s="5" t="n">
-        <v>10.0457688214269</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="n">
-        <v>0.0862</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>29.9304729139442</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="n">
-        <v>0.0637</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>22.4478546854581</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="n">
-        <v>0.0867</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>14.23733741005</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="n">
-        <v>0.0533</v>
-      </c>
-      <c r="U3" s="5" t="n">
-        <v>10.4155297455328</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="n">
-        <v>0.0856</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>30.2664524418967</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="n">
-        <v>0.0633</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>22.8391021494067</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="n">
-        <v>0.0863</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>16.0826507400003</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="n">
-        <v>0.0529</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>11.8555835761245</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="n">
-        <v>0.0848</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>60.3795078793249</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="n">
-        <v>0.0627</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>24.0416885476947</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="n">
-        <v>0.0848</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <v>17.3404112201092</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5" t="n">
-        <v>0.0524</v>
-      </c>
-      <c r="U5" s="5" t="n">
-        <v>12.3162658344824</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="n">
-        <v>0.0839</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>59.7126250632083</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>23.7761516209127</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="n">
-        <v>0.0851</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>18.8991050802766</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5" t="n">
-        <v>0.0524</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>13.3810330414057</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="n">
-        <v>0.0794</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>65.0581371818986</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="n">
-        <v>0.0577</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>26.8835277611151</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="n">
-        <v>0.0849</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>20.1866067747094</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5" t="n">
-        <v>0.0523</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>13.8402161038767</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>67.5306725154179</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>29.7773044162472</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="n">
-        <v>0.0849</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>20.5362780827903</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5" t="n">
-        <v>0.0524</v>
-      </c>
-      <c r="U8" s="5" t="n">
-        <v>14.6323799160694</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="n">
-        <v>0.0706</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>67.2422414209781</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="n">
-        <v>0.0494</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>30.0406896737876</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="n">
-        <v>0.0861</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>23.1408590318122</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5" t="n">
-        <v>0.0529</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>16.3741252243631</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="n">
-        <v>0.0784</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>71.0648023550518</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="n">
-        <v>0.0575</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>34.4139478716958</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" t="n">
-        <v>0.0872</v>
-      </c>
-      <c r="P10" s="5" t="n">
-        <v>23.8630793735433</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5" t="n">
-        <v>0.0539</v>
-      </c>
-      <c r="U10" s="5" t="n">
-        <v>17.2280429050588</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="n">
-        <v>0.0762</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>75.4970402683494</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="n">
-        <v>0.0554</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>35.4478202614372</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="P11" s="5" t="n">
-        <v>25.2762977522056</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5" t="n">
-        <v>0.0556</v>
-      </c>
-      <c r="U11" s="5" t="n">
-        <v>18.5172604522557</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>76.33</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>41.96</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T12" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U12" s="1" t="n">
-        <v>25.61</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>81.1</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>37.17</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="T13" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <v>27.64</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>83.22</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>47.58</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T14" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U14" s="1" t="n">
-        <v>30.17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>81.74</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>46.73</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>40.18</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T15" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U15" s="1" t="n">
-        <v>30.36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>82.89</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>47.76</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>31.13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="B3" s="0" t="n">
+        <v>26.9735496611719</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24.6612326094545</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10.5477608115806</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10.0588331601544</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>73.8174048900806</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>72.5402946586299</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B17" s="5" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>82.38</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>43.04</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T17" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U17" s="1" t="n">
-        <v>32.51</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="B4" s="0" t="n">
+        <v>27.2778851962312</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>24.9882528623237</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>11.1172066734033</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10.2562082472038</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>75.0496810877482</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>71.9399275629388</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B18" s="5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>81.19</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P18" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U18" s="1" t="n">
-        <v>32.93</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="B5" s="0" t="n">
+        <v>27.4271423088162</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>25.1871978417953</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10.6703531260273</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10.4186328859991</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>74.9002879971786</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>71.8539199007021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>83.83</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>44.52</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="U19" s="1" t="n">
-        <v>33.22</v>
+      <c r="B6" s="0" t="n">
+        <v>27.6189646904804</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>25.3684664413551</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>11.7005862107585</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10.7039704173109</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>70.607850476893</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>71.5195971753254</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>27.8892780046446</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>25.5475402369293</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>11.7682265708531</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10.7983456293734</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>67.5362900206455</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>72.0386947032873</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -2394,6 +2135,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V17" activeCellId="0" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="1" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>36.7338118663317</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>15.7430622284279</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>0.0868</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>13.7469713253448</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>10.0457688214269</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>29.9304729139442</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="n">
+        <v>0.0637</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>22.4478546854581</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>0.0867</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>14.23733741005</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="n">
+        <v>0.0533</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>10.4155297455328</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>0.0856</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>30.2664524418967</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>22.8391021494067</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>16.0826507400003</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="n">
+        <v>0.0529</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>11.8555835761245</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>60.3795078793249</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="n">
+        <v>0.0627</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>24.0416885476947</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>17.3404112201092</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>12.3162658344824</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>59.7126250632083</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>23.7761516209127</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>18.8991050802766</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>13.3810330414057</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>0.0794</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>65.0581371818986</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>26.8835277611151</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>20.1866067747094</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="n">
+        <v>0.0523</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>13.8402161038767</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>67.5306725154179</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>29.7773044162472</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>20.5362780827903</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>14.6323799160694</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>67.2422414209781</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>30.0406896737876</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="n">
+        <v>0.0861</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>23.1408590318122</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5" t="n">
+        <v>0.0529</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>16.3741252243631</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="n">
+        <v>0.0784</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>71.0648023550518</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>34.4139478716958</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>23.8630793735433</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>17.2280429050588</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="n">
+        <v>0.0762</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>75.4970402683494</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="n">
+        <v>0.0554</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>35.4478202614372</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>25.2762977522056</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>18.5172604522557</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>81.1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>47.58</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>81.74</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>32.51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>81.19</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>83.83</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>44.52</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>33.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2416,40 +3341,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,855 +4250,6 @@
       </c>
       <c r="M20" s="7" t="n">
         <v>242.736700122497</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.42"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>8.78</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>8.72</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>8.14</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>8.43</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>8.37</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>8.37</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>8.61</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>8.46</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>8.38</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>8.11</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>8.37</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>8.12</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>8.04</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>8.05</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>8.37</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>8.31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>8.28</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>8.36</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>8.96</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>8.39</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>8.31</v>
       </c>
     </row>
   </sheetData>
@@ -4188,6 +4264,855 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>8.37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>8.37</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>8.61</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>8.37</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>8.04</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>8.05</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>8.37</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>8.36</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>8.96</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>8.39</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>8.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4208,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/etl/data/input/Datos_carga_anuales_demo_final.xlsx
+++ b/etl/data/input/Datos_carga_anuales_demo_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Demografía" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Tasas_Morbilidad_hospitalaria" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Estancia_media" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Profesionales sanitarios" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Residencial" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
   <si>
     <t xml:space="preserve">Año</t>
   </si>
@@ -229,6 +230,228 @@
   </si>
   <si>
     <t xml:space="preserve">Enfermeras/os no jubilados 100.000 hab_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros Residenciales_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivienda para mayores_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas_Centros Residenciales_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas_Vivienda para mayores_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros Residenciales_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivienda para mayores_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas_Centros Residenciales_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas_Vivienda para mayores_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Total_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Centros residenciales_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Viviendas para mayores_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación pública_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación privada_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación pública. Residencias_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación privada. Residencias_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación pública.Viviendas_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de ocupación_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de ocupación Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño medio_Centros Residenciales_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño medio_Viviendas_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje Centros públicos_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje Centros privados_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje plazas de financiación Pública_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje plazas de financiación Privada_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de usuarios. Hombres_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de usuarios. Mujeres_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +. Hombres_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +. Mujeres_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 año y más sobre total 65 y +_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 años y más sobre total 65 y +. Hombres_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 años y más sobre total 65 y +. Mujeres_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales_Precio en euros por por año y usuario_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales_Aportación promedio del usuario/a. €/año/Usuario_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales_Aportación promedio del usuario/a. Porcentaje sobre el precio_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales_Precio en euros por año y usuario_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales_Aportación promedio del usuario/a. €/año/Usuario_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales_Aportación promedio del usuario/a. Porcentaje sobre el precio_Cantabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Total_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Centros residenciales_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Viviendas para mayores_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación pública_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación privada_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación pública. Residencias_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación privada. Residencias_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura_Plazas de financiación pública.Viviendas_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de ocupación_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de ocupación España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño medio_Centros Residenciales_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño medio_Viviendas_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje Centros públicos_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje Centros privados_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje plazas de financiación Pública_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje plazas de financiación Privada_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de usuarios. Hombres_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de usuarios. Mujeres_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +. Hombres_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +. Mujeres_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 año y más sobre total 65 y +_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 años y más sobre total 65 y +. Hombres_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 años y más sobre total 65 y +. Mujeres_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales_Precio en euros por por año y usuario_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales_Aportación promedio del usuario/a. €/año/Usuario_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales_Aportación promedio del usuario/a. Porcentaje sobre el precio_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales_Precio en euros por año y usuario_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales_Aportación promedio del usuario/a. €/año/Usuario_España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales_Aportación promedio del usuario/a. Porcentaje sobre el precio_España</t>
   </si>
 </sst>
 </file>
@@ -438,7 +661,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -795,11 +1018,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="82458529"/>
-        <c:axId val="416014"/>
+        <c:axId val="72441424"/>
+        <c:axId val="19465499"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82458529"/>
+        <c:axId val="72441424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,14 +1058,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416014"/>
+        <c:crossAx val="19465499"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416014"/>
+        <c:axId val="19465499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -886,7 +1109,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82458529"/>
+        <c:crossAx val="72441424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -935,9 +1158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
+      <xdr:colOff>484200</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -946,7 +1169,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2661120" y="6858000"/>
-        <a:ext cx="7581600" cy="2742480"/>
+        <a:ext cx="7580880" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -966,7 +1189,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -1044,7 +1267,7 @@
       </c>
       <c r="U1" s="2" t="str">
         <f aca="false">Media_movil_3años_Hogares!G1</f>
-        <v>Tasas de feminidad hogares unipersonales de 65 y + años_España_Media móvil centrada (3 años) </v>
+        <v>Tasas de feminidad hogares unipersonales de 65 y + años_España_Media móvil centrada (3 años)</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,13 +2192,13 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,7 +2371,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,4 +5632,1811 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BW8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BC3" activeCellId="0" sqref="BC3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>5696</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>5663</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>3896</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>5580</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>1330</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>385345</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>374518</v>
+      </c>
+      <c r="N2" s="7" t="n">
+        <v>10827</v>
+      </c>
+      <c r="O2" s="7" t="n">
+        <v>271835</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>4.98106739657027</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>4.95220938672357</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0.0288580098467028</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>3.61162365657219</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>1.36944373999808</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>3.58276564672549</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>1.36944373999808</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>0.0288580098467028</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>3.40699413220466</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>68.7974571781741</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>99.3508771929825</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>18.3333333333333</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>81.6666666666667</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>72.5070224719101</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>27.4929775280899</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>28.5420944558522</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>71.4579055441479</v>
+      </c>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5" t="n">
+        <v>71.4579055441479</v>
+      </c>
+      <c r="AL2" s="5" t="n">
+        <v>21.4439655172414</v>
+      </c>
+      <c r="AM2" s="5" t="n">
+        <v>78.5560344827586</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>16790</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>4442.05</v>
+      </c>
+      <c r="AP2" s="5" t="n">
+        <v>26.4565217391304</v>
+      </c>
+      <c r="AQ2" s="4" t="n">
+        <v>16790</v>
+      </c>
+      <c r="AR2" s="4" t="n">
+        <v>4324.53838974162</v>
+      </c>
+      <c r="AS2" s="5" t="n">
+        <v>25.7566312670734</v>
+      </c>
+      <c r="AT2" s="5" t="n">
+        <v>4.62273783116105</v>
+      </c>
+      <c r="AU2" s="5" t="n">
+        <v>4.49285322775896</v>
+      </c>
+      <c r="AV2" s="5" t="n">
+        <v>0.160797324232723</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>2.29861078537658</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>2.32412704578447</v>
+      </c>
+      <c r="AY2" s="5" t="n">
+        <v>2.22093434619411</v>
+      </c>
+      <c r="AZ2" s="5" t="n">
+        <v>2.27191888156484</v>
+      </c>
+      <c r="BA2" s="5" t="n">
+        <v>0.160797324232723</v>
+      </c>
+      <c r="BB2" s="5" t="n">
+        <v>3.2610308641183</v>
+      </c>
+      <c r="BC2" s="5" t="n">
+        <v>72.5826262022119</v>
+      </c>
+      <c r="BD2" s="5" t="n">
+        <v>67.1179211469534</v>
+      </c>
+      <c r="BE2" s="5" t="n">
+        <v>8.1406015037594</v>
+      </c>
+      <c r="BF2" s="5" t="n">
+        <v>36.8451519536903</v>
+      </c>
+      <c r="BG2" s="5" t="n">
+        <v>63.1548480463097</v>
+      </c>
+      <c r="BH2" s="5" t="n">
+        <v>49.7240135463027</v>
+      </c>
+      <c r="BI2" s="5" t="n">
+        <v>50.2759864536973</v>
+      </c>
+      <c r="BJ2" s="5" t="n">
+        <v>30.6498449427042</v>
+      </c>
+      <c r="BK2" s="5" t="n">
+        <v>69.3501572645171</v>
+      </c>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5" t="n">
+        <v>69.7518715397208</v>
+      </c>
+      <c r="BP2" s="5" t="n">
+        <v>29.7209443594747</v>
+      </c>
+      <c r="BQ2" s="5" t="n">
+        <v>70.2790556405253</v>
+      </c>
+      <c r="BR2" s="4" t="n">
+        <v>18084.8475555556</v>
+      </c>
+      <c r="BS2" s="4" t="n">
+        <v>7829.3218974359</v>
+      </c>
+      <c r="BT2" s="5" t="n">
+        <v>43.2921641909598</v>
+      </c>
+      <c r="BU2" s="4" t="n">
+        <v>16773.1435416667</v>
+      </c>
+      <c r="BV2" s="4" t="n">
+        <v>7320.16791805185</v>
+      </c>
+      <c r="BW2" s="5" t="n">
+        <v>43.6421944393882</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>5576</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>5543</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>3451</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>6610</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>5482</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>1128</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <v>381480</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>371064</v>
+      </c>
+      <c r="N3" s="7" t="n">
+        <v>10416</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>236105</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>4.78162812036394</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>4.75332938866164</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0.0282987317022973</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>3.35811616200595</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>1.42351195835799</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>3.32981743030365</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>1.42351195835799</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>0.0282987317022973</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>2.95936130620085</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>62.25870467256</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>95.5689655172414</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>19.672131147541</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>80.327868852459</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>70.2295552367288</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>29.7704447632712</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>25.094175601275</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>74.905824398725</v>
+      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5" t="n">
+        <v>78.9046653144016</v>
+      </c>
+      <c r="AL3" s="5" t="n">
+        <v>21.1898641204554</v>
+      </c>
+      <c r="AM3" s="5" t="n">
+        <v>78.8101358795446</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>6427.9639137252</v>
+      </c>
+      <c r="AP3" s="5" t="n">
+        <v>38.9513077967449</v>
+      </c>
+      <c r="AQ3" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AR3" s="4" t="n">
+        <v>6427.9639137252</v>
+      </c>
+      <c r="AS3" s="5" t="n">
+        <v>38.9513077967449</v>
+      </c>
+      <c r="AT3" s="5" t="n">
+        <v>4.51860584639938</v>
+      </c>
+      <c r="AU3" s="5" t="n">
+        <v>4.39522900227624</v>
+      </c>
+      <c r="AV3" s="5" t="n">
+        <v>0.123376844123141</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>2.0831924279594</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>2.44959180576865</v>
+      </c>
+      <c r="AY3" s="5" t="n">
+        <v>2.06940492348942</v>
+      </c>
+      <c r="AZ3" s="5" t="n">
+        <v>2.32582407878682</v>
+      </c>
+      <c r="BA3" s="5" t="n">
+        <v>0.0137875044699824</v>
+      </c>
+      <c r="BB3" s="5" t="n">
+        <v>2.79664840454054</v>
+      </c>
+      <c r="BC3" s="5" t="n">
+        <v>63.6291852618416</v>
+      </c>
+      <c r="BD3" s="5" t="n">
+        <v>67.6877052170741</v>
+      </c>
+      <c r="BE3" s="5" t="n">
+        <v>9.23404255319149</v>
+      </c>
+      <c r="BF3" s="5" t="n">
+        <v>33.3585476550681</v>
+      </c>
+      <c r="BG3" s="5" t="n">
+        <v>66.6414523449319</v>
+      </c>
+      <c r="BH3" s="5" t="n">
+        <v>47.3924413609492</v>
+      </c>
+      <c r="BI3" s="5" t="n">
+        <v>55.7279944257818</v>
+      </c>
+      <c r="BJ3" s="5" t="n">
+        <v>30.5810112925268</v>
+      </c>
+      <c r="BK3" s="5" t="n">
+        <v>69.4189887074732</v>
+      </c>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5" t="n">
+        <v>67.0908455138484</v>
+      </c>
+      <c r="BP3" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BQ3" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="BR3" s="4" t="n">
+        <v>18000.6516568628</v>
+      </c>
+      <c r="BS3" s="4" t="n">
+        <v>6104.99358242032</v>
+      </c>
+      <c r="BT3" s="5" t="n">
+        <v>33.9154031687114</v>
+      </c>
+      <c r="BU3" s="4" t="n">
+        <v>18931.8580625</v>
+      </c>
+      <c r="BV3" s="4" t="n">
+        <v>5882.82795742032</v>
+      </c>
+      <c r="BW3" s="5" t="n">
+        <v>31.073695661563</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>5597</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>5564</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>3430</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>6523</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>5398</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>377920</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>369018</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>8902</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>230540</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>4.71866727367764</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>4.69084593724181</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0.0278213364358339</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>3.3545787175207</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1.36408855615695</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>3.32675738108486</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>1.36408855615695</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>0.0278213364358339</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>2.89173284772455</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>61.646297627606</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>92.7333333333333</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>19.047619047619</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>80.952380952381</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>71.0916562444167</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>28.9083437555833</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>42.8571428571429</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>57.1428571428571</v>
+      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5" t="n">
+        <v>80.7871720116618</v>
+      </c>
+      <c r="AL4" s="5" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AM4" s="5" t="n">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>7652.25908173268</v>
+      </c>
+      <c r="AP4" s="5" t="n">
+        <v>46.3701263469396</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AR4" s="4" t="n">
+        <v>7652.25908173268</v>
+      </c>
+      <c r="AS4" s="5" t="n">
+        <v>46.3701263469396</v>
+      </c>
+      <c r="AT4" s="5" t="n">
+        <v>4.40775205461638</v>
+      </c>
+      <c r="AU4" s="5" t="n">
+        <v>4.30392635396493</v>
+      </c>
+      <c r="AV4" s="5" t="n">
+        <v>0.103825700651447</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>2.05612676019377</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>2.35162529442261</v>
+      </c>
+      <c r="AY4" s="5" t="n">
+        <v>2.00279100091731</v>
+      </c>
+      <c r="AZ4" s="5" t="n">
+        <v>2.30113535304762</v>
+      </c>
+      <c r="BA4" s="5" t="n">
+        <v>0.0533357592764625</v>
+      </c>
+      <c r="BB4" s="5" t="n">
+        <v>2.68883138937145</v>
+      </c>
+      <c r="BC4" s="5" t="n">
+        <v>62.4739172614886</v>
+      </c>
+      <c r="BD4" s="5" t="n">
+        <v>68.3619859207114</v>
+      </c>
+      <c r="BE4" s="5" t="n">
+        <v>7.91288888888889</v>
+      </c>
+      <c r="BF4" s="5" t="n">
+        <v>33.9414379886555</v>
+      </c>
+      <c r="BG4" s="5" t="n">
+        <v>66.0585620113445</v>
+      </c>
+      <c r="BH4" s="5" t="n">
+        <v>46.6479678238781</v>
+      </c>
+      <c r="BI4" s="5" t="n">
+        <v>53.3520321761219</v>
+      </c>
+      <c r="BJ4" s="5" t="n">
+        <v>35.6934339554431</v>
+      </c>
+      <c r="BK4" s="5" t="n">
+        <v>64.3065660445569</v>
+      </c>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5" t="n">
+        <v>68.5530299606851</v>
+      </c>
+      <c r="BP4" s="5" t="n">
+        <v>23.9787476681103</v>
+      </c>
+      <c r="BQ4" s="5" t="n">
+        <v>76.0212523318897</v>
+      </c>
+      <c r="BR4" s="4" t="n">
+        <v>17584.9298958333</v>
+      </c>
+      <c r="BS4" s="4" t="n">
+        <v>8005.09239483693</v>
+      </c>
+      <c r="BT4" s="5" t="n">
+        <v>45.5224583905432</v>
+      </c>
+      <c r="BU4" s="4" t="n">
+        <v>19154.0086519608</v>
+      </c>
+      <c r="BV4" s="4" t="n">
+        <v>6574.89970623487</v>
+      </c>
+      <c r="BW4" s="5" t="n">
+        <v>34.326494394487</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>5639</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>5606</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>3749</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>5973</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>5387</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>586</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>381333</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>372306</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>9027</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>297220</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>4.68530596983923</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>4.65788708404304</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0.0274188857961863</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>3.30272942544971</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>1.38257654438951</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>3.27531053965352</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>1.38257654438951</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>0.0274188857961863</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>3.11495160151219</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>66.8747770246165</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>93.4333333333333</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>19.047619047619</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>80.952380952381</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>70.4912218478454</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>29.5087781521546</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>31.6084289143772</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>68.3915710856228</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>19.0184049079755</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>34.0813464235624</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>65.9186535764376</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>80.9815950920245</v>
+      </c>
+      <c r="AL5" s="5" t="n">
+        <v>31.0276679841897</v>
+      </c>
+      <c r="AM5" s="5" t="n">
+        <v>68.9723320158103</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>7633.57</v>
+      </c>
+      <c r="AP5" s="5" t="n">
+        <v>46.2568767729254</v>
+      </c>
+      <c r="AQ5" s="4" t="n">
+        <v>16000.5078515625</v>
+      </c>
+      <c r="AR5" s="4" t="n">
+        <v>6822.43370292686</v>
+      </c>
+      <c r="AS5" s="5" t="n">
+        <v>42.6388572551504</v>
+      </c>
+      <c r="AT5" s="5" t="n">
+        <v>4.40455062860192</v>
+      </c>
+      <c r="AU5" s="5" t="n">
+        <v>4.30028512174993</v>
+      </c>
+      <c r="AV5" s="5" t="n">
+        <v>0.104265506851989</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>2.45474984421391</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>1.94980078438801</v>
+      </c>
+      <c r="AY5" s="5" t="n">
+        <v>2.40382410812103</v>
+      </c>
+      <c r="AZ5" s="5" t="n">
+        <v>1.8964610136289</v>
+      </c>
+      <c r="BA5" s="5" t="n">
+        <v>0.0509257360928791</v>
+      </c>
+      <c r="BB5" s="5" t="n">
+        <v>3.43301140429248</v>
+      </c>
+      <c r="BC5" s="5" t="n">
+        <v>79.8321810553684</v>
+      </c>
+      <c r="BD5" s="5" t="n">
+        <v>69.1119361425654</v>
+      </c>
+      <c r="BE5" s="5" t="n">
+        <v>15.4044368600683</v>
+      </c>
+      <c r="BF5" s="5" t="n">
+        <v>26.8709191361125</v>
+      </c>
+      <c r="BG5" s="5" t="n">
+        <v>73.1290808638875</v>
+      </c>
+      <c r="BH5" s="5" t="n">
+        <v>55.7321291364765</v>
+      </c>
+      <c r="BI5" s="5" t="n">
+        <v>44.2678708635235</v>
+      </c>
+      <c r="BJ5" s="5" t="n">
+        <v>30.4521902967499</v>
+      </c>
+      <c r="BK5" s="5" t="n">
+        <v>69.5478097032501</v>
+      </c>
+      <c r="BL5" s="5" t="n">
+        <v>22.4638315052823</v>
+      </c>
+      <c r="BM5" s="5" t="n">
+        <v>50.9682927194572</v>
+      </c>
+      <c r="BN5" s="5" t="n">
+        <v>49.0317072805428</v>
+      </c>
+      <c r="BO5" s="5" t="n">
+        <v>77.5361684947177</v>
+      </c>
+      <c r="BP5" s="5" t="n">
+        <v>24.5082511401457</v>
+      </c>
+      <c r="BQ5" s="5" t="n">
+        <v>75.4917488598543</v>
+      </c>
+      <c r="BR5" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="BS5" s="4" t="n">
+        <v>7633.57</v>
+      </c>
+      <c r="BT5" s="5" t="n">
+        <v>46.2568767729254</v>
+      </c>
+      <c r="BU5" s="4" t="n">
+        <v>17224.5435069444</v>
+      </c>
+      <c r="BV5" s="4" t="n">
+        <v>6205.08592151654</v>
+      </c>
+      <c r="BW5" s="5" t="n">
+        <v>36.0246755974393</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>5659</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>5626</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>4262</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>6048</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>5423</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>625</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>384624</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>374790</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>9834</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>303193</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>4.63044029685876</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>4.6034382594323</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0.0270020374264604</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>3.51435608323173</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>1.11608421362703</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>3.48735404580527</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>1.11608421362703</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>0.0270020374264604</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>3.48735404580527</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>75.755421258443</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>92.2295081967213</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>75.8968015550451</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>24.1031984449549</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>32.5668700140779</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>67.4331299859221</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>18.5828249648053</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>32.8282828282828</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>67.1717171717172</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>81.4171750351948</v>
+      </c>
+      <c r="AL6" s="5" t="n">
+        <v>32.507204610951</v>
+      </c>
+      <c r="AM6" s="5" t="n">
+        <v>67.492795389049</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>7682.85</v>
+      </c>
+      <c r="AP6" s="5" t="n">
+        <v>46.5554970629561</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="AR6" s="4" t="n">
+        <v>7682.85</v>
+      </c>
+      <c r="AS6" s="5" t="n">
+        <v>46.5554970629561</v>
+      </c>
+      <c r="AT6" s="5" t="n">
+        <v>4.38857881445936</v>
+      </c>
+      <c r="AU6" s="5" t="n">
+        <v>4.27637238932366</v>
+      </c>
+      <c r="AV6" s="5" t="n">
+        <v>0.1122064251357</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>2.46528948892563</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>1.91611240450359</v>
+      </c>
+      <c r="AY6" s="5" t="n">
+        <v>2.41440066890273</v>
+      </c>
+      <c r="AZ6" s="5" t="n">
+        <v>1.86197172042093</v>
+      </c>
+      <c r="BA6" s="5" t="n">
+        <v>0.0508888200229023</v>
+      </c>
+      <c r="BB6" s="5" t="n">
+        <v>3.45944708726543</v>
+      </c>
+      <c r="BC6" s="5" t="n">
+        <v>80.8967688572267</v>
+      </c>
+      <c r="BD6" s="5" t="n">
+        <v>69.1111930665683</v>
+      </c>
+      <c r="BE6" s="5" t="n">
+        <v>15.7344</v>
+      </c>
+      <c r="BF6" s="5" t="n">
+        <v>27.2194716412006</v>
+      </c>
+      <c r="BG6" s="5" t="n">
+        <v>72.7805283587994</v>
+      </c>
+      <c r="BH6" s="5" t="n">
+        <v>56.1751216772744</v>
+      </c>
+      <c r="BI6" s="5" t="n">
+        <v>43.6613419859395</v>
+      </c>
+      <c r="BJ6" s="5" t="n">
+        <v>30.9667439551705</v>
+      </c>
+      <c r="BK6" s="5" t="n">
+        <v>69.0332560448295</v>
+      </c>
+      <c r="BL6" s="5" t="n">
+        <v>23.3488240163856</v>
+      </c>
+      <c r="BM6" s="5" t="n">
+        <v>49.1030059893773</v>
+      </c>
+      <c r="BN6" s="5" t="n">
+        <v>50.8969940106227</v>
+      </c>
+      <c r="BO6" s="5" t="n">
+        <v>76.6511759836144</v>
+      </c>
+      <c r="BP6" s="5" t="n">
+        <v>25.4422313157</v>
+      </c>
+      <c r="BQ6" s="5" t="n">
+        <v>74.5577686843</v>
+      </c>
+      <c r="BR6" s="4" t="n">
+        <v>17859.06</v>
+      </c>
+      <c r="BS6" s="4" t="n">
+        <v>7263.89080954709</v>
+      </c>
+      <c r="BT6" s="5" t="n">
+        <v>40.6734218348955</v>
+      </c>
+      <c r="BU6" s="4" t="n">
+        <v>19129.1761605263</v>
+      </c>
+      <c r="BV6" s="4" t="n">
+        <v>6980.49089630117</v>
+      </c>
+      <c r="BW6" s="5" t="n">
+        <v>36.491330508554</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>6047</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>6014</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>4365</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>6061</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>5416</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>645</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>386873</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>376589</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <v>10284</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>281028</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>4.85367537283483</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>4.82718764548184</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0.0264877273529931</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>3.53009166358981</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>1.32358370924502</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>3.50360393623682</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>1.32358370924502</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>0.0264877273529931</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>3.50360393623682</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>72.1845543244584</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>95.4603174603175</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>19.6969696969697</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>80.3030303030303</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>72.5806451612903</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>27.4193548387097</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>34.8224513172967</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>65.1775486827033</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>20.3436426116838</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>36.5990990990991</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>63.4009009009009</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>79.6563573883162</v>
+      </c>
+      <c r="AL7" s="5" t="n">
+        <v>34.3687086568881</v>
+      </c>
+      <c r="AM7" s="5" t="n">
+        <v>65.6312913431119</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>17189.1444336716</v>
+      </c>
+      <c r="AO7" s="4" t="n">
+        <v>7855.88029829648</v>
+      </c>
+      <c r="AP7" s="5" t="n">
+        <v>45.7025672720958</v>
+      </c>
+      <c r="AQ7" s="4" t="n">
+        <v>17189.1444336716</v>
+      </c>
+      <c r="AR7" s="4" t="n">
+        <v>7855.88029829648</v>
+      </c>
+      <c r="AS7" s="5" t="n">
+        <v>45.7025672720958</v>
+      </c>
+      <c r="AT7" s="5" t="n">
+        <v>4.34291021784431</v>
+      </c>
+      <c r="AU7" s="5" t="n">
+        <v>4.22746538535326</v>
+      </c>
+      <c r="AV7" s="5" t="n">
+        <v>0.115444832491052</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>2.45445996593457</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>1.85402110943113</v>
+      </c>
+      <c r="AY7" s="5" t="n">
+        <v>2.39797237384054</v>
+      </c>
+      <c r="AZ7" s="5" t="n">
+        <v>1.79534451088672</v>
+      </c>
+      <c r="BA7" s="5" t="n">
+        <v>0.0567682339466406</v>
+      </c>
+      <c r="BB7" s="5" t="n">
+        <v>3.15472874224965</v>
+      </c>
+      <c r="BC7" s="5" t="n">
+        <v>72.6408924892665</v>
+      </c>
+      <c r="BD7" s="5" t="n">
+        <v>69.5326809453471</v>
+      </c>
+      <c r="BE7" s="5" t="n">
+        <v>15.9441860465116</v>
+      </c>
+      <c r="BF7" s="5" t="n">
+        <v>27.8171918825276</v>
+      </c>
+      <c r="BG7" s="5" t="n">
+        <v>72.1828081174724</v>
+      </c>
+      <c r="BH7" s="5" t="n">
+        <v>57.1855750414272</v>
+      </c>
+      <c r="BI7" s="5" t="n">
+        <v>42.8144249585728</v>
+      </c>
+      <c r="BJ7" s="5" t="n">
+        <v>29.43218983676</v>
+      </c>
+      <c r="BK7" s="5" t="n">
+        <v>70.56781016324</v>
+      </c>
+      <c r="BL7" s="5" t="n">
+        <v>20.4655150056911</v>
+      </c>
+      <c r="BM7" s="5" t="n">
+        <v>45.8587067478616</v>
+      </c>
+      <c r="BN7" s="5" t="n">
+        <v>54.1412932521384</v>
+      </c>
+      <c r="BO7" s="5" t="n">
+        <v>79.5344849943089</v>
+      </c>
+      <c r="BP7" s="5" t="n">
+        <v>25.2053801911145</v>
+      </c>
+      <c r="BQ7" s="5" t="n">
+        <v>74.7946198088855</v>
+      </c>
+      <c r="BR7" s="4" t="n">
+        <v>17657.4127659894</v>
+      </c>
+      <c r="BS7" s="4" t="n">
+        <v>9866.24771820756</v>
+      </c>
+      <c r="BT7" s="5" t="n">
+        <v>55.875953340182</v>
+      </c>
+      <c r="BU7" s="4" t="n">
+        <v>18650.2343319657</v>
+      </c>
+      <c r="BV7" s="4" t="n">
+        <v>7023.83794753121</v>
+      </c>
+      <c r="BW7" s="5" t="n">
+        <v>37.6608562793908</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>6093</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>6060</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>4093</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>6240</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>5457</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>783</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>391475</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>381158</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>10317</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>280317</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>4.80168330798389</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>4.7756771453114</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0.0260061626724878</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>3.33351721529162</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>1.46816609269227</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>3.30751105261914</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>1.46816609269227</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>0.0260061626724878</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>3.22555223692402</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>67.1754472345314</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>96.1904761904762</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>19.6969696969697</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>80.3030303030303</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>69.423929098966</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>30.576070901034</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>33.4717810896653</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>66.5282189103347</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>21.695577815783</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>36.5990990990991</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>63.4009009009009</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>78.304422184217</v>
+      </c>
+      <c r="AL8" s="5" t="n">
+        <v>32.6053042121685</v>
+      </c>
+      <c r="AM8" s="5" t="n">
+        <v>67.3946957878315</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>17071.5638895485</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>7872.23283519194</v>
+      </c>
+      <c r="AP8" s="5" t="n">
+        <v>46.1131322597307</v>
+      </c>
+      <c r="AQ8" s="4" t="n">
+        <v>17071.5638895485</v>
+      </c>
+      <c r="AR8" s="4" t="n">
+        <v>7872.23283519194</v>
+      </c>
+      <c r="AS8" s="5" t="n">
+        <v>46.1131322597307</v>
+      </c>
+      <c r="AT8" s="5" t="n">
+        <v>4.32302514030024</v>
+      </c>
+      <c r="AU8" s="5" t="n">
+        <v>4.20909538649098</v>
+      </c>
+      <c r="AV8" s="5" t="n">
+        <v>0.113929753809254</v>
+      </c>
+      <c r="AW8" s="5" t="n">
+        <v>2.56350228257053</v>
+      </c>
+      <c r="AX8" s="5" t="n">
+        <v>1.75257686420969</v>
+      </c>
+      <c r="AY8" s="5" t="n">
+        <v>2.51578584695845</v>
+      </c>
+      <c r="AZ8" s="5" t="n">
+        <v>1.69330953953253</v>
+      </c>
+      <c r="BA8" s="5" t="n">
+        <v>0.0477164356120757</v>
+      </c>
+      <c r="BB8" s="5" t="n">
+        <v>3.09551679737797</v>
+      </c>
+      <c r="BC8" s="5" t="n">
+        <v>71.6053387828086</v>
+      </c>
+      <c r="BD8" s="5" t="n">
+        <v>69.8475352757926</v>
+      </c>
+      <c r="BE8" s="5" t="n">
+        <v>13.176245210728</v>
+      </c>
+      <c r="BF8" s="5" t="n">
+        <v>29.7275641025641</v>
+      </c>
+      <c r="BG8" s="5" t="n">
+        <v>70.2724358974359</v>
+      </c>
+      <c r="BH8" s="5" t="n">
+        <v>59.394237116409</v>
+      </c>
+      <c r="BI8" s="5" t="n">
+        <v>40.605762883591</v>
+      </c>
+      <c r="BJ8" s="5" t="n">
+        <v>29.5564848117173</v>
+      </c>
+      <c r="BK8" s="5" t="n">
+        <v>70.4435151882827</v>
+      </c>
+      <c r="BL8" s="5" t="n">
+        <v>18.1970504542763</v>
+      </c>
+      <c r="BM8" s="5" t="n">
+        <v>46.5887442451183</v>
+      </c>
+      <c r="BN8" s="5" t="n">
+        <v>53.4112557548817</v>
+      </c>
+      <c r="BO8" s="5" t="n">
+        <v>81.8029495457237</v>
+      </c>
+      <c r="BP8" s="5" t="n">
+        <v>25.7676619638727</v>
+      </c>
+      <c r="BQ8" s="5" t="n">
+        <v>74.2323380361273</v>
+      </c>
+      <c r="BR8" s="4" t="n">
+        <v>18182.5223031605</v>
+      </c>
+      <c r="BS8" s="4" t="n">
+        <v>7715.58094823599</v>
+      </c>
+      <c r="BT8" s="5" t="n">
+        <v>42.4340518856114</v>
+      </c>
+      <c r="BU8" s="4" t="n">
+        <v>19184.0741652756</v>
+      </c>
+      <c r="BV8" s="4" t="n">
+        <v>7403.14850209318</v>
+      </c>
+      <c r="BW8" s="5" t="n">
+        <v>38.590074445674</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>